--- a/medicine/Mort/Ancien_cimetière_de_Vaasa/Ancien_cimetière_de_Vaasa.xlsx
+++ b/medicine/Mort/Ancien_cimetière_de_Vaasa/Ancien_cimetière_de_Vaasa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ancien_cimeti%C3%A8re_de_Vaasa</t>
+          <t>Ancien_cimetière_de_Vaasa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ancien cimetière de Vaasa (finnois : Vaasan vanha hautausmaa) est un cimetière du quartier de Vöyrinkaupunki à Vaasa en Finlande[2],[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ancien cimetière de Vaasa (finnois : Vaasan vanha hautausmaa) est un cimetière du quartier de Vöyrinkaupunki à Vaasa en Finlande,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ancien_cimeti%C3%A8re_de_Vaasa</t>
+          <t>Ancien_cimetière_de_Vaasa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,18 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ancien cimetière est situé au nord-ouest de Vöyrinkaupunki et borde la plage d'Onkilahti et la route menant à Raippaluoto. 
-Le cimetière soigneusement entretenu  compte de nombreux monuments anciens et des allées  bordées d'arbres[2].
+Le cimetière soigneusement entretenu  compte de nombreux monuments anciens et des allées  bordées d'arbres.
 Entourée d'un mur de granit, la zone des tombes des héros 
  blancs de 1918 a été inaugurée en 1920. 
 La pierre tombale de 1921 des volontaires suédois est un sarcophage érigé sur un monticule par l'architecte suédois Harald Wadsjö. 
-Il est situé au bout de l'allée menant de la porte principale du cimetière[2]. 
+Il est situé au bout de l'allée menant de la porte principale du cimetière. 
 Le mémorial aux héros de la Seconde Guerre mondiale  a été réalisée par Armas Tirronen en 1953. 
-Parmi les tombes des héros se trouve une pierre commémorative des défunts enterrés en Carélie érigée en 1962[2].
+Parmi les tombes des héros se trouve une pierre commémorative des défunts enterrés en Carélie érigée en 1962.
 </t>
         </is>
       </c>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ancien_cimeti%C3%A8re_de_Vaasa</t>
+          <t>Ancien_cimetière_de_Vaasa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,13 +563,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le vieux cimetière de Vaasa est conçu par l'ingénieur municipal A.F. Berger en 1862 et inauguré en 1864[2]. 
-Il a été placé en dehors de la zone urbaine, une pratique qui est devenue plus courante après l'ordonnance sur les soins de santé de 1879[2]. 
-Le cimetière a été agrandi en 1895 selon un plan établi par l'architecte paysagiste Ossi Lundén[2]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vieux cimetière de Vaasa est conçu par l'ingénieur municipal A.F. Berger en 1862 et inauguré en 1864. 
+Il a été placé en dehors de la zone urbaine, une pratique qui est devenue plus courante après l'ordonnance sur les soins de santé de 1879. 
+Le cimetière a été agrandi en 1895 selon un plan établi par l'architecte paysagiste Ossi Lundén. 
 Des rangées uniformes d'arbres ont été plantées le long des allées centrales.
-La direction des musées de Finlande a classé le cimetière parmi les sites culturels construits d'intérêt national en Finlande[2].
+La direction des musées de Finlande a classé le cimetière parmi les sites culturels construits d'intérêt national en Finlande.
 </t>
         </is>
       </c>
